--- a/pred_ohlcv/54_21/2020-01-14 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>356.0245</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>237.85626223</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>243.70646223</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>243.70646223</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -964,7 +964,7 @@
         <v>210.22513857</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>153.99733857</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>153.91683857</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>123.68693857</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>94.92503857</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>47.29483857</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-214.81226143</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-158.16226143</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-156.44186143</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-156.44186143</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-147.14766143</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-146.51933771</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-146.51933771</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-132.35873771</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-30.80513770999998</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-111.5337369</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-87.62403689999998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-82.47403689999997</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-67.47403689999997</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.76443689999998</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>194.6173631</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>240.24689416</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>232.63999416</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>233.72899416</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>214.66409416</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>211.90419416</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>206.43669416</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>206.43669416</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>271.2380941600001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>378.9518941600001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>396.36639416</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>316.2413941600001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>255.6138941600001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>255.6138941600001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>254.8314941600001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>255.1614941600001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>298.5822941600001</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>281.7428941600001</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>354.3687941600001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>318.1668941600001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>341.4793941600001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>383.9392050900001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>127.1698052000001</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>113.1392052</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>113.1392052</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>113.1392052</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>147.7051052</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>147.7051052</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>178.7171052</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>231.31685794</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>231.30685794</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>231.30685794</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>268.05715794</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1454.84533279</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1473.04313279</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1350.67203279</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1350.67203279</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1346.27203279</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1295.23113279</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1156.9272152</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1140.5240152</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1141.09211412</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1138.77811412</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1040.42301412</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1050.42301412</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1081.28495427</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1033.93085427</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1091.17725427</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1121.54365427</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1121.54365427</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>845.9936542699999</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1910.35405611</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1876.85305611</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1923.54285611</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1923.54285611</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1858.22845611</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1863.71719264</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1871.14519264</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1871.04611335</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1844.92491335</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1754.31281335</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1716.56711335</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1718.42231313</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1712.75431313</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1704.45871313</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1634.07111313</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1634.07111313</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>736.0052795099994</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>736.0052795099994</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>480.0664795099993</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>654.0600795099994</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>616.3426795099994</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>592.4052795099993</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>588.3111795099994</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>597.3141795099995</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>636.5785455999994</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>635.1267455999994</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>635.1267455999994</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>650.7238455999993</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>699.8833912899996</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>700.1908912899996</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>666.3056912899997</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>648.5153912899997</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>720.1082912899997</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>631.2197912899996</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>631.2227912899997</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>631.2227912899997</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>822.9654912899997</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1418.92087391</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1202.49867391</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>1410.68408622</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>1421.0209027</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>1391.1317027</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>1374.0092027</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>1396.677202699999</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>1362.6650027</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>1367.8792027</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BSV ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-214.81226143</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-147.14766143</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-146.51933771</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-146.51933771</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-132.35873771</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-30.80513770999998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-111.5337369</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-87.62403689999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-82.47403689999997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-67.47403689999997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.76443689999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-50.13863689999998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-76.57863689999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-42.71303689999998</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>179.9026631</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>194.6173631</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>196.5773631</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>240.24689416</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>232.63999416</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>233.72899416</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>214.66409416</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>211.90419416</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>206.43669416</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>206.43669416</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>271.2380941600001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>378.9518941600001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>396.36639416</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>281.7428941600001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>353.3243941600001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>354.3687941600001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>318.1668941600001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>341.4793941600001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>383.9392050900001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>231.31685794</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>231.30685794</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>231.30685794</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>231.49685794</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>267.78715794</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>268.05715794</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>268.35715794</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1454.84533279</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1473.04313279</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1350.67203279</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1350.67203279</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1346.27203279</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1295.23113279</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1140.5240152</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1631.71665611</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1599.66725611</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1529.05385611</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1910.35405611</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1876.85305611</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1923.54285611</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1923.54285611</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1926.33485611</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1858.22845611</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1844.92491335</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>1418.92087391</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1202.49867391</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>1410.68408622</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>1421.0209027</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
